--- a/doc/工作计划/v1.x任务项及工作计划.xlsx
+++ b/doc/工作计划/v1.x任务项及工作计划.xlsx
@@ -9,14 +9,15 @@
   <sheets>
     <sheet name="V1.1.x任务项" sheetId="1" r:id="rId1"/>
     <sheet name="V1.2.x任务项" sheetId="5" r:id="rId2"/>
-    <sheet name="9月份工作计划" sheetId="2" r:id="rId3"/>
+    <sheet name="V1.3.x任务项" sheetId="6" r:id="rId3"/>
+    <sheet name="9月份工作计划" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="61">
   <si>
     <t>任务ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,16 +43,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>其他配合人员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>客服端</t>
   </si>
   <si>
-    <t>幻火</t>
-  </si>
-  <si>
     <t>功能完善</t>
   </si>
   <si>
@@ -59,9 +53,6 @@
   </si>
   <si>
     <t>业务组件</t>
-  </si>
-  <si>
-    <t>Anthony</t>
   </si>
   <si>
     <t>服务器转发客服消息失败后的持久化</t>
@@ -197,6 +188,72 @@
   </si>
   <si>
     <t>一周完成情况回顾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈志刚</t>
+  </si>
+  <si>
+    <t>顾学东</t>
+  </si>
+  <si>
+    <t>负责人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客服端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成+已发布</t>
+  </si>
+  <si>
+    <t xml:space="preserve">已完成
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配合人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>监听其他客服对话(班组长、巡检员)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接管其他客服对话(班组长)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂断其他客服对话(班组长)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库设计文档整理、完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配合人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成任务项1009</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -267,7 +324,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -297,6 +354,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -592,21 +652,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="14.25" style="4" customWidth="1"/>
+    <col min="1" max="1" width="9.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13" style="4" customWidth="1"/>
     <col min="3" max="3" width="12.375" style="4" customWidth="1"/>
     <col min="4" max="4" width="45.125" style="6" customWidth="1"/>
     <col min="5" max="5" width="11.875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="11" style="4" customWidth="1"/>
     <col min="7" max="8" width="14.75" style="4" customWidth="1"/>
     <col min="9" max="9" width="18.875" style="4" customWidth="1"/>
     <col min="11" max="11" width="13.875" customWidth="1"/>
@@ -626,17 +686,17 @@
       <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>2</v>
+      <c r="E1" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>5</v>
@@ -644,176 +704,190 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="27">
       <c r="A7" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="27">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:F1048576">
-      <formula1>"Anthony,幻火"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
       <formula1>"客服端,管理端,业务组件,开发平台"</formula1>
     </dataValidation>
@@ -822,6 +896,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576">
       <formula1>"未开始,需求分析,设计,编码+自测,测试一,整改一,测试二,整改二,测试三,整改三,已完成+已发布"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576 F2:F1048576">
+      <formula1>"顾学东,陈志刚"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -835,17 +912,17 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="14.25" style="4" customWidth="1"/>
+    <col min="1" max="1" width="11.125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.625" style="4" customWidth="1"/>
     <col min="3" max="3" width="12.375" style="4" customWidth="1"/>
     <col min="4" max="4" width="42.25" style="6" customWidth="1"/>
     <col min="5" max="5" width="11.875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="4" customWidth="1"/>
     <col min="7" max="8" width="14.75" style="4" customWidth="1"/>
     <col min="9" max="9" width="18.875" style="4" customWidth="1"/>
     <col min="11" max="11" width="13.875" customWidth="1"/>
@@ -869,99 +946,99 @@
         <v>2</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -973,11 +1050,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
       <formula1>"客服端,管理端,业务组件,开发平台"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:F1048576">
-      <formula1>"Anthony,幻火"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576">
       <formula1>"未开始,需求分析,设计,编码+自测,测试一,整改一,测试二,整改二,测试三,整改三,已完成+已发布"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576 F2:F1048576">
+      <formula1>"顾学东,陈志刚"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -986,11 +1063,123 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="10.25" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="45.125" style="6" customWidth="1"/>
+    <col min="5" max="6" width="11.875" style="4" customWidth="1"/>
+    <col min="7" max="8" width="14.75" style="4" customWidth="1"/>
+    <col min="9" max="9" width="18.875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="13.875" customWidth="1"/>
+    <col min="14" max="14" width="9.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:F1048576">
+      <formula1>"顾学东,陈志刚"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576">
+      <formula1>"未开始,需求分析,设计,编码+自测,测试一,整改一,测试二,整改二,测试三,整改三,已完成+已发布"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576">
+      <formula1>"新增特性,功能完善,BUG修正"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
+      <formula1>"客服端,管理端,业务组件,开发平台"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1003,45 +1192,59 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="27">
       <c r="A2" s="1">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
+      <c r="B2" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="27">
       <c r="A3" s="1">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
+      <c r="B3" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>45</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576">
-      <formula1>"Anthony,幻火"</formula1>
+      <formula1>"顾学东,陈志刚"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/工作计划/v1.x任务项及工作计划.xlsx
+++ b/doc/工作计划/v1.x任务项及工作计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="18195" windowHeight="9360"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="18195" windowHeight="9360" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="V1.1.x任务项" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="63">
   <si>
     <t>任务ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,177 +83,186 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>服务器对找不到在线客服而持久化的消息的定时重发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客服主页面刷新时对联系人菜单的重新加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“接入管理”的开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“座席与客服管理”的开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增特性</t>
+  </si>
+  <si>
+    <t>“会话管理”的开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会话相关数据结构的设计重构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未开始</t>
+  </si>
+  <si>
+    <t>所处阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周计划设定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成任务项1001
+完成任务项1005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一周完成情况回顾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈志刚</t>
+  </si>
+  <si>
+    <t>顾学东</t>
+  </si>
+  <si>
+    <t>负责人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客服端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成+已发布</t>
+  </si>
+  <si>
+    <t>1009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配合人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>监听其他客服对话(班组长、巡检员)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接管其他客服对话(班组长)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂断其他客服对话(班组长)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库设计文档整理、完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配合人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>服务器找不到在线客服时对消息的持久化</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>服务器对找不到在线客服而持久化的消息的定时重发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客服主页面刷新时对联系人菜单的重新加载</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“接入管理”的开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“座席与客服管理”的开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增特性</t>
-  </si>
-  <si>
-    <t>“会话管理”的开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>会话相关数据结构的设计重构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未开始</t>
-  </si>
-  <si>
-    <t>所处阶段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>完成任务项1006
+完成任务项1009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">已完成
+已完成
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编码+自测</t>
   </si>
   <si>
     <t>完成任务项1002
 完成任务项1007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周计划设定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成任务项1001
-完成任务项1005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一周完成情况回顾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈志刚</t>
-  </si>
-  <si>
-    <t>顾学东</t>
-  </si>
-  <si>
-    <t>负责人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客服端</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成+已发布</t>
-  </si>
-  <si>
-    <t xml:space="preserve">已完成
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1009</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>配合人员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>监听其他客服对话(班组长、巡检员)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接管其他客服对话(班组长)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>挂断其他客服对话(班组长)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库设计文档整理、完善</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>配合人员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成任务项1009</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -261,7 +270,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -281,6 +290,22 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -324,7 +349,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -357,6 +382,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -654,9 +694,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -687,10 +727,10 @@
         <v>1</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>11</v>
@@ -704,173 +744,179 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="14" customFormat="1">
+      <c r="A3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>51</v>
+      <c r="E3" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="27">
       <c r="A7" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="14" customFormat="1">
+      <c r="A8" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>38</v>
+      <c r="C8" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>9</v>
@@ -879,10 +925,10 @@
         <v>7</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -946,7 +992,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>11</v>
@@ -955,72 +1001,72 @@
         <v>12</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>30</v>
-      </c>
       <c r="E4" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>8</v>
@@ -1029,16 +1075,16 @@
         <v>7</v>
       </c>
       <c r="D5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1099,7 +1145,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>11</v>
@@ -1113,44 +1159,44 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1175,11 +1221,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1192,30 +1238,30 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="27">
+    </row>
+    <row r="2" spans="1:4" ht="33" customHeight="1">
       <c r="A2" s="1">
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>40</v>
+        <v>43</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="27">
@@ -1223,21 +1269,29 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="27">
       <c r="A4" s="1">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>60</v>
+        <v>43</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/doc/工作计划/v1.x任务项及工作计划.xlsx
+++ b/doc/工作计划/v1.x任务项及工作计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="18195" windowHeight="9360" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="18195" windowHeight="9360"/>
   </bookViews>
   <sheets>
     <sheet name="V1.1.x任务项" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="71">
   <si>
     <t>任务ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,10 +111,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1007</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -169,15 +165,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>周计划设定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成任务项1001
-完成任务项1005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>一周完成情况回顾</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -239,30 +226,176 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>服务器找不到在线客服时对消息的持久化</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成任务项1006
-完成任务项1009</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">已完成
-已完成
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编码+自测</t>
   </si>
   <si>
     <t>完成任务项1002
 完成任务项1007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当周计划设定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成
+已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发平台</t>
+  </si>
+  <si>
+    <t>开发平台集成安全框架(Spring Security)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块管理、菜单管理、角色管理、缓存管理的集成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表情发送功能代码的整理完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>完成任务项1001
+完成任务项1005</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>图片发送区域的显示/隐藏的切换</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(计划外)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>任务项1010</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(计划外)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>未完成
+未完成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>已完成
+已完成</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成任务项1001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成任务项1008
+完成任务项1009</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -270,7 +403,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -299,25 +432,61 @@
       <sz val="11"/>
       <color rgb="FF00B050"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF00B050"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -349,7 +518,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -380,23 +549,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -694,9 +869,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -727,10 +902,10 @@
         <v>1</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>11</v>
@@ -744,45 +919,45 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="14" customFormat="1">
-      <c r="A3" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="16" customFormat="1">
+      <c r="A3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="13" t="s">
+      <c r="C3" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12" t="s">
-        <v>49</v>
+      <c r="E3" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -793,19 +968,19 @@
         <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -816,16 +991,16 @@
         <v>6</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -836,99 +1011,105 @@
         <v>6</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="27">
-      <c r="A7" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="16" customFormat="1">
+      <c r="A7" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="14" customFormat="1">
-      <c r="A8" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" s="12" t="s">
+      <c r="C7" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12" t="s">
-        <v>61</v>
+      <c r="C8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="4" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="16" customFormat="1">
+      <c r="A10" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>43</v>
+      <c r="D10" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -943,7 +1124,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576">
       <formula1>"未开始,需求分析,设计,编码+自测,测试一,整改一,测试二,整改二,测试三,整改三,已完成+已发布"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576 F2:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:F1048576">
       <formula1>"顾学东,陈志刚"</formula1>
     </dataValidation>
   </dataValidations>
@@ -954,7 +1135,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -992,7 +1173,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>11</v>
@@ -1001,72 +1182,72 @@
         <v>12</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="E4" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>8</v>
@@ -1075,16 +1256,73 @@
         <v>7</v>
       </c>
       <c r="D5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>37</v>
+    </row>
+    <row r="6" spans="1:9" ht="27">
+      <c r="A6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1099,7 +1337,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576">
       <formula1>"未开始,需求分析,设计,编码+自测,测试一,整改一,测试二,整改二,测试三,整改三,已完成+已发布"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576 F2:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:F1048576">
       <formula1>"顾学东,陈志刚"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1112,7 +1350,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1145,7 +1383,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>11</v>
@@ -1159,59 +1397,59 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:F4 E6:F1048576">
       <formula1>"顾学东,陈志刚"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I4 I6:I1048576">
       <formula1>"未开始,需求分析,设计,编码+自测,测试一,整改一,测试二,整改二,测试三,整改三,已完成+已发布"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C4 C6:C1048576">
       <formula1>"新增特性,功能完善,BUG修正"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B4 B6:B1048576">
       <formula1>"客服端,管理端,业务组件,开发平台"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1221,86 +1459,108 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="11.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="49.125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="39.625" style="7" customWidth="1"/>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="11.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="49.125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="39.625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="42.75" customHeight="1">
+      <c r="A2" s="1">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="63" customHeight="1">
+      <c r="A3" s="1">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="33" customHeight="1">
-      <c r="A2" s="1">
-        <v>3</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="27">
-      <c r="A3" s="1">
-        <v>3</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="9" t="s">
+      <c r="D3" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="36.75" customHeight="1">
+      <c r="A4" s="1">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="27">
-      <c r="A4" s="1">
+      <c r="D4" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="34.5" customHeight="1">
+      <c r="A5" s="1">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>42</v>
+      <c r="C5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576">
       <formula1>"顾学东,陈志刚"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/工作计划/v1.x任务项及工作计划.xlsx
+++ b/doc/工作计划/v1.x任务项及工作计划.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="72">
   <si>
     <t>任务ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -394,8 +394,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>完成任务项1008
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>完成任务项1008</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 完成任务项1009</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>已完成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -518,7 +565,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -545,9 +592,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -871,7 +915,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -937,26 +981,26 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="16" customFormat="1">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:9" s="15" customFormat="1">
+      <c r="A3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14" t="s">
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1023,26 +1067,26 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="16" customFormat="1">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:9" s="15" customFormat="1">
+      <c r="A7" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14" t="s">
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1086,29 +1130,29 @@
         <v>40</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="16" customFormat="1">
-      <c r="A10" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="15" customFormat="1">
+      <c r="A10" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14" t="s">
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1463,7 +1507,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1501,10 +1545,10 @@
       <c r="C2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="16" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1518,10 +1562,10 @@
       <c r="C3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1535,8 +1579,11 @@
       <c r="C4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="10" t="s">
         <v>70</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="34.5" customHeight="1">

--- a/doc/工作计划/v1.x任务项及工作计划.xlsx
+++ b/doc/工作计划/v1.x任务项及工作计划.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="18195" windowHeight="9360"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="18195" windowHeight="9360" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="V1.1.x任务项" sheetId="1" r:id="rId1"/>
     <sheet name="V1.2.x任务项" sheetId="5" r:id="rId2"/>
     <sheet name="V1.3.x任务项" sheetId="6" r:id="rId3"/>
-    <sheet name="9月份工作计划" sheetId="2" r:id="rId4"/>
+    <sheet name="每周工作计划及完成情况" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="75">
   <si>
     <t>任务ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -147,14 +147,6 @@
   </si>
   <si>
     <t>周次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>会话相关数据结构的设计重构</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -276,6 +268,97 @@
   </si>
   <si>
     <t>表情发送功能代码的整理完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>未完成
+未完成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>已完成
+已完成</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成任务项1001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会话相关数据结构的设计重构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成任务项2004
+完成任务项2006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未反馈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>未完成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+已完成
+已完成</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -360,8 +443,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>未完成
-未完成</t>
+      <t>完成任务项1008</t>
     </r>
     <r>
       <rPr>
@@ -384,64 +466,19 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>已完成
-已完成</t>
+      <t>完成任务项1009
+发展了测试人员加入</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成任务项1001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF00B050"/>
+        <color rgb="FF0070C0"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>完成任务项1008</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-完成任务项1009</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>已完成</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
+      <t>(计划外)</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -565,7 +602,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -616,6 +653,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -913,9 +962,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -946,10 +995,10 @@
         <v>1</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>11</v>
@@ -975,10 +1024,10 @@
         <v>15</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="15" customFormat="1">
@@ -995,13 +1044,13 @@
         <v>10</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
       <c r="I3" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1018,13 +1067,13 @@
         <v>13</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1041,10 +1090,10 @@
         <v>18</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1061,10 +1110,10 @@
         <v>16</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="15" customFormat="1">
@@ -1078,16 +1127,16 @@
         <v>27</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
       <c r="I7" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1104,38 +1153,41 @@
         <v>17</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>24</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="19" customFormat="1">
+      <c r="A9" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>46</v>
+      <c r="D9" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="15" customFormat="1">
       <c r="A10" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>6</v>
@@ -1144,16 +1196,16 @@
         <v>7</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
       <c r="I10" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1183,7 +1235,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1217,7 +1269,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>11</v>
@@ -1226,7 +1278,7 @@
         <v>12</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1243,10 +1295,10 @@
         <v>19</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1263,10 +1315,10 @@
         <v>26</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1283,15 +1335,15 @@
         <v>28</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="4" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>8</v>
@@ -1300,18 +1352,18 @@
         <v>7</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="27">
       <c r="A6" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>9</v>
@@ -1323,50 +1375,50 @@
         <v>14</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1394,7 +1446,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1427,7 +1479,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>11</v>
@@ -1441,7 +1493,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>6</v>
@@ -1450,26 +1502,26 @@
         <v>27</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>6</v>
@@ -1478,7 +1530,7 @@
         <v>27</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1503,11 +1555,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1520,7 +1572,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>33</v>
@@ -1529,10 +1581,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="42.75" customHeight="1">
@@ -1543,13 +1595,13 @@
         <v>3</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="63" customHeight="1">
@@ -1560,16 +1612,16 @@
         <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="36.75" customHeight="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="51.75" customHeight="1">
       <c r="A4" s="1">
         <v>9</v>
       </c>
@@ -1577,13 +1629,13 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="34.5" customHeight="1">
@@ -1594,10 +1646,41 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D5" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="39.75" customHeight="1">
+      <c r="A6" s="1">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="20" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
